--- a/data/proc/scrap_lists/2010_2014/09257.xlsx
+++ b/data/proc/scrap_lists/2010_2014/09257.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>id_matched</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>estado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>id_matched</t>
         </is>
       </c>
     </row>
@@ -496,10 +496,14 @@
           <t>0925720100059</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0925720100059</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,10 +531,14 @@
           <t>0925720100102</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0925720100102</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -558,10 +566,14 @@
           <t>0925720100199</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0925720100199</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -589,10 +601,14 @@
           <t>0925720100221</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0925720100221</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -620,10 +636,14 @@
           <t>0925720100409</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0925720100409</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -651,10 +671,14 @@
           <t>0925720100455</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0925720100455</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -682,10 +706,14 @@
           <t>0925720100566</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0925720100566</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -713,10 +741,14 @@
           <t>0925720100681</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0925720100681</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -744,10 +776,14 @@
           <t>0925720100729</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0925720100729</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -775,10 +811,14 @@
           <t>0925720100828</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0925720100828</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -806,10 +846,14 @@
           <t>0925720101389</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0925720101389</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -837,10 +881,14 @@
           <t>0925720101468</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0925720101468</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -868,10 +916,14 @@
           <t>0925720101532</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0925720101532</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -899,10 +951,14 @@
           <t>0925720101542</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0925720101542</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -930,10 +986,14 @@
           <t>0925720101592</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0925720101592</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -961,10 +1021,14 @@
           <t>0925720101636</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0925720101636</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -992,10 +1056,14 @@
           <t>0925720101690</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0925720101690</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1023,10 +1091,14 @@
           <t>0925720101704</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0925720101704</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1054,10 +1126,14 @@
           <t>0925720101738</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0925720101738</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1085,10 +1161,14 @@
           <t>0925720102013</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0925720102013</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1116,10 +1196,14 @@
           <t>0925720102267</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0925720102267</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1147,10 +1231,14 @@
           <t>0925720110080</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0925720110080</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1178,10 +1266,14 @@
           <t>0925720110305</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0925720110305</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1209,10 +1301,14 @@
           <t>0925720110860</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0925720110860</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1240,10 +1336,14 @@
           <t>0925720110915</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0925720110915</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1271,10 +1371,14 @@
           <t>0925720111188</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0925720111188</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1302,10 +1406,14 @@
           <t>0925720111300</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0925720111300</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1333,10 +1441,14 @@
           <t>0925720111347</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0925720111347</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1364,10 +1476,14 @@
           <t>0925720111406</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0925720111406</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1395,10 +1511,14 @@
           <t>0925720111420</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0925720111420</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1426,10 +1546,14 @@
           <t>0925720112081</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0925720112081</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1457,10 +1581,14 @@
           <t>0925720112353</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0925720112353</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1488,10 +1616,14 @@
           <t>0925720112458</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0925720112458</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1519,10 +1651,14 @@
           <t>0925720130029</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0925720130029</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
